--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_530.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_530.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32253-d76655-Reviews-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Motel-6-Newport-Beach.h2823542.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_530.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_530.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,645 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r548895908-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>32253</t>
+  </si>
+  <si>
+    <t>76655</t>
+  </si>
+  <si>
+    <t>548895908</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>Best Customer service ever!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer service at this Motel 6 is amazing. The Manger Eddie is  legit!! I have been to a few motel 6 to stay and this one by far is by the BEST CUSTOMER SERVICE. To everyone. Clean and up to date. There are several places around here to eat and shop. Maids are amazing. Security guard at all times! It was a wonderful surprise and experience. Thank you Eddie for making our Christmas a little more brighter </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r533915351-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>533915351</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Simple, Budget Motel</t>
+  </si>
+  <si>
+    <t>Stayed one night this week. Room was in the back, generally clean, and the front desk was nice. I don't remember if I had to pay to park, but the parking structure felt safe and was easy to access.No issues, although, I agree that they could have used a bit of a better cleanup. A cobweb in the bathroom isn't the end of the world, but is indicative of what you can expect for the price.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r526112867-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>526112867</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Scary place</t>
+  </si>
+  <si>
+    <t>I never write reviews but I had such an awful experience here I had to share it. My young daughter and I needed a room for a few nights while on vacation. I wanted a budget hotel and the pictures of this place didn't look too bad. It was cheap so I didn't have high expectations. 
+The room initially looked clean. However, after my daughter took off her shoes and walked on the hardwood floors they were black. Pulled back the bedding to find what looked like a blood stain on the sheets.  We had pillows and blankets in the car so we used our own. 
+This is in a pretty shady area and the majority of the hotel guests looked either homeless or like drug dealers. In fact, we were the only females I ever saw. We felt very unsafe when not locked in our room. There were police there several times, but actually these were the only times I felt comfortable enough to go out at night. 
+The pool was tiny and full of garbage. My daughter was grossed out and disappointed.
+We had to walk to the lobby and pay cash for internet service. It was too slow to actually do anything and only works for one night on one device only. Don't expect wifi.
+Again, I knew that for the price we weren't getting a nice hotel. However, it was a gross and scary experience. Looking...I never write reviews but I had such an awful experience here I had to share it. My young daughter and I needed a room for a few nights while on vacation. I wanted a budget hotel and the pictures of this place didn't look too bad. It was cheap so I didn't have high expectations. The room initially looked clean. However, after my daughter took off her shoes and walked on the hardwood floors they were black. Pulled back the bedding to find what looked like a blood stain on the sheets.  We had pillows and blankets in the car so we used our own. This is in a pretty shady area and the majority of the hotel guests looked either homeless or like drug dealers. In fact, we were the only females I ever saw. We felt very unsafe when not locked in our room. There were police there several times, but actually these were the only times I felt comfortable enough to go out at night. The pool was tiny and full of garbage. My daughter was grossed out and disappointed.We had to walk to the lobby and pay cash for internet service. It was too slow to actually do anything and only works for one night on one device only. Don't expect wifi.Again, I knew that for the price we weren't getting a nice hotel. However, it was a gross and scary experience. Looking back, I should have left and moved to a new hotel even though I had already paid for it. Kinda ruined our vacation. If you are a man looking for a really cheap bed, go for it. Do NOT bring kids here. Worst hotel ever. I would choose a tent in the Walmart parking lot over this place next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Costa Mesa, responded to this reviewResponded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>I never write reviews but I had such an awful experience here I had to share it. My young daughter and I needed a room for a few nights while on vacation. I wanted a budget hotel and the pictures of this place didn't look too bad. It was cheap so I didn't have high expectations. 
+The room initially looked clean. However, after my daughter took off her shoes and walked on the hardwood floors they were black. Pulled back the bedding to find what looked like a blood stain on the sheets.  We had pillows and blankets in the car so we used our own. 
+This is in a pretty shady area and the majority of the hotel guests looked either homeless or like drug dealers. In fact, we were the only females I ever saw. We felt very unsafe when not locked in our room. There were police there several times, but actually these were the only times I felt comfortable enough to go out at night. 
+The pool was tiny and full of garbage. My daughter was grossed out and disappointed.
+We had to walk to the lobby and pay cash for internet service. It was too slow to actually do anything and only works for one night on one device only. Don't expect wifi.
+Again, I knew that for the price we weren't getting a nice hotel. However, it was a gross and scary experience. Looking...I never write reviews but I had such an awful experience here I had to share it. My young daughter and I needed a room for a few nights while on vacation. I wanted a budget hotel and the pictures of this place didn't look too bad. It was cheap so I didn't have high expectations. The room initially looked clean. However, after my daughter took off her shoes and walked on the hardwood floors they were black. Pulled back the bedding to find what looked like a blood stain on the sheets.  We had pillows and blankets in the car so we used our own. This is in a pretty shady area and the majority of the hotel guests looked either homeless or like drug dealers. In fact, we were the only females I ever saw. We felt very unsafe when not locked in our room. There were police there several times, but actually these were the only times I felt comfortable enough to go out at night. The pool was tiny and full of garbage. My daughter was grossed out and disappointed.We had to walk to the lobby and pay cash for internet service. It was too slow to actually do anything and only works for one night on one device only. Don't expect wifi.Again, I knew that for the price we weren't getting a nice hotel. However, it was a gross and scary experience. Looking back, I should have left and moved to a new hotel even though I had already paid for it. Kinda ruined our vacation. If you are a man looking for a really cheap bed, go for it. Do NOT bring kids here. Worst hotel ever. I would choose a tent in the Walmart parking lot over this place next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r466562118-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>466562118</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Very strict</t>
+  </si>
+  <si>
+    <t>I stayed hee dor a night and it was not to bad the only thing security on u when u get park your vehicle watching you like a hawk. They so strict that after 8pm u cant visitors and if they see that u do they will kick you off property</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r462330935-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>462330935</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service and a friendly staff!</t>
+  </si>
+  <si>
+    <t>Last weekend my boyfriend and I stayed at the Costa Mesa location and the stay was great! First, it is close to everything...all the best places to eat and right off the freeway. We have stayed there before which is why we came back. Noticed that there are a few new faces, super friendly new guy named Chris. He's knowledgeable and super fast about getting us checked in. Sorry others have had bad experiences but we were treated great, the room was clean, the staff was really great to us and the prices are not bad especially for the location.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r445428094-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>445428094</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Worst motel and service</t>
+  </si>
+  <si>
+    <t>This is the worst motel stay. And also the worst customer service. I stayed there and went to pay for a extra night just because it was easier then moving, even though the room was full of cockroaches and other bugs. When i went to pay for one more night the front desk said i couldn't stay because i had people in my room after 8 pm. This was not the case. I was asleep at 10. I think the people next door were having some people over. The front desk called me at 1 am. I showed them the room and that no one was in it and I still was not able to stay. I asked to see the tapes and the front desk told me that I would have to call the police in order to see them.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the worst motel stay. And also the worst customer service. I stayed there and went to pay for a extra night just because it was easier then moving, even though the room was full of cockroaches and other bugs. When i went to pay for one more night the front desk said i couldn't stay because i had people in my room after 8 pm. This was not the case. I was asleep at 10. I think the people next door were having some people over. The front desk called me at 1 am. I showed them the room and that no one was in it and I still was not able to stay. I asked to see the tapes and the front desk told me that I would have to call the police in order to see them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r383589794-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>383589794</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not recommended </t>
+  </si>
+  <si>
+    <t>Had stayed at this motel for 3 weeks before I suddenly ended up in the hospital so ended up not being able to stay my final night. Offered to move my stuff out of the room prior to leaving for the hospital as I was not sure if I was going to be admitted. Upon hospital admission had my family notify the motel I was in the hospital they refused to refund the night and told them my stuff would be removed from the room the next day and held for 30 days. When I went to pickup my stuff once I got out of the hospital I was informed I had been put on the do not rent list for supposed complaints from staff/other guests which WERE NEVER discussed with me despite them having a staff member claiming to of informed me which never happened. Truly disgusted at the way the staff treated me, especially since they had rooms constantly slamming doors 3 nights in a row. Security is incompetent and unable to properly do its job. Only a few front desk staff even do their job. I'll miss talking to Leticia and yesenia as they truly knew customer service. I would like the owner of this property to contact me to resolve this mess as they truly need to get rid of a few bad employees.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Had stayed at this motel for 3 weeks before I suddenly ended up in the hospital so ended up not being able to stay my final night. Offered to move my stuff out of the room prior to leaving for the hospital as I was not sure if I was going to be admitted. Upon hospital admission had my family notify the motel I was in the hospital they refused to refund the night and told them my stuff would be removed from the room the next day and held for 30 days. When I went to pickup my stuff once I got out of the hospital I was informed I had been put on the do not rent list for supposed complaints from staff/other guests which WERE NEVER discussed with me despite them having a staff member claiming to of informed me which never happened. Truly disgusted at the way the staff treated me, especially since they had rooms constantly slamming doors 3 nights in a row. Security is incompetent and unable to properly do its job. Only a few front desk staff even do their job. I'll miss talking to Leticia and yesenia as they truly knew customer service. I would like the owner of this property to contact me to resolve this mess as they truly need to get rid of a few bad employees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r354696923-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>354696923</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Not impressed with this motel. Got a room for a night due to being displaced for the night. Checked in prior to going to work to ensure I had a place to stay for the night. Upon getting back from work I decided to wash my uniform for work. The laundry facilities on-site were disappointing as one washer was broken and the washer that was working took an hour to do a load that the machine stated should take 30 minutes. The laundry room was also overpriced $2 a load for a washer or dryer. Also no change machine to get change to do laundry. The pool area was right by my room and was supposed to close at 10pm; however, there was still guests in the pool area smoking/drinking and in the spa at 1130pm. They also don't enforce their no smoking/drinking policy in the pool area as well. I was in a non smoking room. I did not feel the price I paid for my room that night was really worth it. If they were to enforce their policies a bit better they would get a better rating from me.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Costa Mesa, responded to this reviewResponded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Not impressed with this motel. Got a room for a night due to being displaced for the night. Checked in prior to going to work to ensure I had a place to stay for the night. Upon getting back from work I decided to wash my uniform for work. The laundry facilities on-site were disappointing as one washer was broken and the washer that was working took an hour to do a load that the machine stated should take 30 minutes. The laundry room was also overpriced $2 a load for a washer or dryer. Also no change machine to get change to do laundry. The pool area was right by my room and was supposed to close at 10pm; however, there was still guests in the pool area smoking/drinking and in the spa at 1130pm. They also don't enforce their no smoking/drinking policy in the pool area as well. I was in a non smoking room. I did not feel the price I paid for my room that night was really worth it. If they were to enforce their policies a bit better they would get a better rating from me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r336570090-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>336570090</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>A lot worse than the average motel 6</t>
+  </si>
+  <si>
+    <t>The clientelle is extremely dodgy. Heard the police coming 3 times in a night, to 3 different rooms. Quite scary guests in this place. Avoid if you want to be safe. At the same time, the price is well above the average motel 6. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Costa Mesa, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>The clientelle is extremely dodgy. Heard the police coming 3 times in a night, to 3 different rooms. Quite scary guests in this place. Avoid if you want to be safe. At the same time, the price is well above the average motel 6. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r294276961-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>294276961</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Ashtray Inn</t>
+  </si>
+  <si>
+    <t>Was told upon check-in that we were being placed in a smoking room because we did not indicate nonsmoking preference in the comments box online. (We booked on the phone.) I asked for a discount and was denied. EVERYONE who stays there smokes, mostly - but not all - tobacco. Several guests appear to be long-term residents. The pool is in the courtyard where smokers staying in nonsmoking rooms go to smoke. The smoking room was so disgusting. The surrounding area is actually decent, but the motel has a gritty feel. There was a security guard on duty at night, but not because of the surroundings - this motel IS the bad neighborhood. Many rooms were occupied by partying young people. (Smoking, but NOT tobacco.) WIFI was available, but for a charge. Did you know motels still did this? We purchased WIFI for one night (to look for a new motel) and it didn't even work.    This is NOT fit for a family or couple stay. Might be okay for a stopover for a single traveler. Don't even take a hooker there. She deserves better.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Was told upon check-in that we were being placed in a smoking room because we did not indicate nonsmoking preference in the comments box online. (We booked on the phone.) I asked for a discount and was denied. EVERYONE who stays there smokes, mostly - but not all - tobacco. Several guests appear to be long-term residents. The pool is in the courtyard where smokers staying in nonsmoking rooms go to smoke. The smoking room was so disgusting. The surrounding area is actually decent, but the motel has a gritty feel. There was a security guard on duty at night, but not because of the surroundings - this motel IS the bad neighborhood. Many rooms were occupied by partying young people. (Smoking, but NOT tobacco.) WIFI was available, but for a charge. Did you know motels still did this? We purchased WIFI for one night (to look for a new motel) and it didn't even work.    This is NOT fit for a family or couple stay. Might be okay for a stopover for a single traveler. Don't even take a hooker there. She deserves better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r285810142-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>285810142</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Three-night stay</t>
+  </si>
+  <si>
+    <t>I stayed at this motel for 3 nights in June 2015.  I had already driven 7000+ miles around the country, and was visiting a doctor in a nearby town.  I found the property to be in great shape, and parking was no problem at all - I parked right in front of my room.  The staff was friendly and helpful, from the front desk to the cleaners.The area of this motel is so convenient.  There are many businesses and restaurants within walking distance, and I ate several meals at the Denny's which is a short walk across the parking lot.  The room was small, but very comfortable and certainly sufficient for just myself.  The only drawback for me was the lack of a refrigerator - in my extended travels this year I have become accustomed to them being in most motel rooms, and it saves on having to buy ice for my coolers.  There was no outside noise that bothered me, but I was sort of on the back side of the motel and away from traffic - room 142.  I didn't swim in the pool, but sat under one of the umbrellas for a while when waiting for the cleaners to be finished with my room.  The pool looked very inviting, and the pool furniture is comfortable and plentiful.  I will definitely stay at this motel6 if I am in Costa Mesa in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this motel for 3 nights in June 2015.  I had already driven 7000+ miles around the country, and was visiting a doctor in a nearby town.  I found the property to be in great shape, and parking was no problem at all - I parked right in front of my room.  The staff was friendly and helpful, from the front desk to the cleaners.The area of this motel is so convenient.  There are many businesses and restaurants within walking distance, and I ate several meals at the Denny's which is a short walk across the parking lot.  The room was small, but very comfortable and certainly sufficient for just myself.  The only drawback for me was the lack of a refrigerator - in my extended travels this year I have become accustomed to them being in most motel rooms, and it saves on having to buy ice for my coolers.  There was no outside noise that bothered me, but I was sort of on the back side of the motel and away from traffic - room 142.  I didn't swim in the pool, but sat under one of the umbrellas for a while when waiting for the cleaners to be finished with my room.  The pool looked very inviting, and the pool furniture is comfortable and plentiful.  I will definitely stay at this motel6 if I am in Costa Mesa in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r271437040-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>271437040</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>Nice, Clean, Comfortable</t>
+  </si>
+  <si>
+    <t>This Motel 6 was immaculate.  Maybe recently renovated.  My only complaint is that you have to go to the lobby for coffee and the towels were like sandpaper.  Staff was very friendly and helpful in giving directions.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r241422457-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>241422457</t>
+  </si>
+  <si>
+    <t>11/25/2014</t>
+  </si>
+  <si>
+    <t>Spartan Comfort</t>
+  </si>
+  <si>
+    <t>I chose this motel based on the location. It's just off the freeway and a few miles to the beach. It's laid out in a horseshoe shape with part of the underground parking under the building, yet open in the back. There are stairs and an elevator. My room was located on a large empty open courtyard space that no one ever seemed to cross. The decor was in a basic retro style with bright solid colors. The room has flooring and no carpet. I avoided the cold feeling by putting towels on the floor. The A/C, frig, microwave and TV all operated easily, though the A/C was missing a control knob. The internet was slow coming up, but otherwise functioned properly. There is very basic coffee and tea available in the lobby and better coffee is just up the street. The front desk staff were pleasant. For the second day, I believe my towels were folded, but not replaced. There is a small pool and jacuzzi which a couple people did use. In all, I would return for another stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I chose this motel based on the location. It's just off the freeway and a few miles to the beach. It's laid out in a horseshoe shape with part of the underground parking under the building, yet open in the back. There are stairs and an elevator. My room was located on a large empty open courtyard space that no one ever seemed to cross. The decor was in a basic retro style with bright solid colors. The room has flooring and no carpet. I avoided the cold feeling by putting towels on the floor. The A/C, frig, microwave and TV all operated easily, though the A/C was missing a control knob. The internet was slow coming up, but otherwise functioned properly. There is very basic coffee and tea available in the lobby and better coffee is just up the street. The front desk staff were pleasant. For the second day, I believe my towels were folded, but not replaced. There is a small pool and jacuzzi which a couple people did use. In all, I would return for another stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r239566138-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>239566138</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Nice room, confusing to find</t>
+  </si>
+  <si>
+    <t>I made the reservation by calling the Motel 6 booking phone number.  I was given an address I was told was in Newport Beach, which I plugged into my GPS.  The GPS went berserk telling us to turn here, turn there, taking us to locations that were NOT the hotel.  Finally I found a taxi driver who said that we were looking in the wrong town!  He gave us proper instructions and we finally found it after driving aimlessly through the tourist area of Newport Beach.  When we did arrive at the place, the clerk was having a pleasant chat with a group of people while I waited.  It did not sound like hotel business, just a pleasant chat, while I became even more frustrated at being ignored.  Finally the people left and I was able to check in.  
+The room we had was a "3" room, I don't recall the exact number.  Call it 324.  So we took the elevator to the third floor and walked the ENTIRE floor trying to find it, further adding to the upset of the evening, while my companion became even angrier.  He went back to the office in frustration, where he was told that our room is actually on the 4th floor.  Luckily, it was a good-sized room and the beds were comfortable.  The ice machine was on the 2nd floor, so he went down, got ice, and we had a relaxing drink....I made the reservation by calling the Motel 6 booking phone number.  I was given an address I was told was in Newport Beach, which I plugged into my GPS.  The GPS went berserk telling us to turn here, turn there, taking us to locations that were NOT the hotel.  Finally I found a taxi driver who said that we were looking in the wrong town!  He gave us proper instructions and we finally found it after driving aimlessly through the tourist area of Newport Beach.  When we did arrive at the place, the clerk was having a pleasant chat with a group of people while I waited.  It did not sound like hotel business, just a pleasant chat, while I became even more frustrated at being ignored.  Finally the people left and I was able to check in.  The room we had was a "3" room, I don't recall the exact number.  Call it 324.  So we took the elevator to the third floor and walked the ENTIRE floor trying to find it, further adding to the upset of the evening, while my companion became even angrier.  He went back to the office in frustration, where he was told that our room is actually on the 4th floor.  Luckily, it was a good-sized room and the beds were comfortable.  The ice machine was on the 2nd floor, so he went down, got ice, and we had a relaxing drink.  There were not enough towels in the room so we had to have some brought to us.The best thing about this or any other Motel 6 is that they allow pets, which explains why they did not have carpeted floors.  I can live with that.  Once the frustrations of finding the place and then the room were past, it was a decent place to stay and I would probably return....BUT, I did have to go downstairs and outside to smoke, so I combined the smoke break with a walk for the dog, which made the dog happy.  We were there several days, leaving in the morning and returning at night.  The room had been cleaned in our absence and they did leave enough towels...maybe others have had other experiences, but mine was acceptable, for the price.  I would have expected more if I had been paying more, but I am able to make allowances in exchange for the benefit of having my dog with me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I made the reservation by calling the Motel 6 booking phone number.  I was given an address I was told was in Newport Beach, which I plugged into my GPS.  The GPS went berserk telling us to turn here, turn there, taking us to locations that were NOT the hotel.  Finally I found a taxi driver who said that we were looking in the wrong town!  He gave us proper instructions and we finally found it after driving aimlessly through the tourist area of Newport Beach.  When we did arrive at the place, the clerk was having a pleasant chat with a group of people while I waited.  It did not sound like hotel business, just a pleasant chat, while I became even more frustrated at being ignored.  Finally the people left and I was able to check in.  
+The room we had was a "3" room, I don't recall the exact number.  Call it 324.  So we took the elevator to the third floor and walked the ENTIRE floor trying to find it, further adding to the upset of the evening, while my companion became even angrier.  He went back to the office in frustration, where he was told that our room is actually on the 4th floor.  Luckily, it was a good-sized room and the beds were comfortable.  The ice machine was on the 2nd floor, so he went down, got ice, and we had a relaxing drink....I made the reservation by calling the Motel 6 booking phone number.  I was given an address I was told was in Newport Beach, which I plugged into my GPS.  The GPS went berserk telling us to turn here, turn there, taking us to locations that were NOT the hotel.  Finally I found a taxi driver who said that we were looking in the wrong town!  He gave us proper instructions and we finally found it after driving aimlessly through the tourist area of Newport Beach.  When we did arrive at the place, the clerk was having a pleasant chat with a group of people while I waited.  It did not sound like hotel business, just a pleasant chat, while I became even more frustrated at being ignored.  Finally the people left and I was able to check in.  The room we had was a "3" room, I don't recall the exact number.  Call it 324.  So we took the elevator to the third floor and walked the ENTIRE floor trying to find it, further adding to the upset of the evening, while my companion became even angrier.  He went back to the office in frustration, where he was told that our room is actually on the 4th floor.  Luckily, it was a good-sized room and the beds were comfortable.  The ice machine was on the 2nd floor, so he went down, got ice, and we had a relaxing drink.  There were not enough towels in the room so we had to have some brought to us.The best thing about this or any other Motel 6 is that they allow pets, which explains why they did not have carpeted floors.  I can live with that.  Once the frustrations of finding the place and then the room were past, it was a decent place to stay and I would probably return....BUT, I did have to go downstairs and outside to smoke, so I combined the smoke break with a walk for the dog, which made the dog happy.  We were there several days, leaving in the morning and returning at night.  The room had been cleaned in our absence and they did leave enough towels...maybe others have had other experiences, but mine was acceptable, for the price.  I would have expected more if I had been paying more, but I am able to make allowances in exchange for the benefit of having my dog with me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r238013464-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>238013464</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>What do you expect?</t>
+  </si>
+  <si>
+    <t>This was one of the best priced rooms in the area that accepted pets. They let me renew my room multiple times, there was security on-site to make sure that cars parked in the area were customers of the motel. I thanked him for asking me who I was. I stayed at this property for several nights on a few different occasions, and I have to say that when you stay here, you are surrounded by great food choices. There is a Target just down the street. The beach and many other attractions are just minutes away.The rooms themselves looked all right. They have laminate floors and small bathrooms, but you can't ask for much when you only pay $50 a night in OC.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>This was one of the best priced rooms in the area that accepted pets. They let me renew my room multiple times, there was security on-site to make sure that cars parked in the area were customers of the motel. I thanked him for asking me who I was. I stayed at this property for several nights on a few different occasions, and I have to say that when you stay here, you are surrounded by great food choices. There is a Target just down the street. The beach and many other attractions are just minutes away.The rooms themselves looked all right. They have laminate floors and small bathrooms, but you can't ask for much when you only pay $50 a night in OC.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r230192447-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>230192447</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Make this your last choice!</t>
+  </si>
+  <si>
+    <t>In town for our annual Sand and Sport Show weekend, our 1st choice hotel was sold out, so we ended up at this Motel 6. Having never stayed at a Motel 6, I only expected what I've seen on commercials. The only decent part of our stay was the pleasant front desk staff. The rooms had been recently updated, but not impressive.  There was no digital clock, hair dryer, travel size shampoo, conditioner or lotion. The room was very small with only a full size bed. Housekeeping staff is lacking in skills, large black hair ball and coins on floor upon entering the room. The worse part if our stay at this location was, I feel,  the motel is occupied by locals, drug addicts and possibly prostitutes. The other"guests" are up all night and if not loitering in the parking lot/corridors or pool area they are watching your every move through there rooms window. Very uncomfortable and almost scary to be there after dark. I really wish I could have a more positive review because the front desk staff was nice, but I cant. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Costa Mesa, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>In town for our annual Sand and Sport Show weekend, our 1st choice hotel was sold out, so we ended up at this Motel 6. Having never stayed at a Motel 6, I only expected what I've seen on commercials. The only decent part of our stay was the pleasant front desk staff. The rooms had been recently updated, but not impressive.  There was no digital clock, hair dryer, travel size shampoo, conditioner or lotion. The room was very small with only a full size bed. Housekeeping staff is lacking in skills, large black hair ball and coins on floor upon entering the room. The worse part if our stay at this location was, I feel,  the motel is occupied by locals, drug addicts and possibly prostitutes. The other"guests" are up all night and if not loitering in the parking lot/corridors or pool area they are watching your every move through there rooms window. Very uncomfortable and almost scary to be there after dark. I really wish I could have a more positive review because the front desk staff was nice, but I cant. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r227164535-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>227164535</t>
+  </si>
+  <si>
+    <t>09/05/2014</t>
+  </si>
+  <si>
+    <t>I liked it</t>
+  </si>
+  <si>
+    <t>After reading some of the previous reviews, I had to check to make sure I had the right motel. I've stayed in quite a few Motel 6s and I thought this one was a notch above most. Clean, comfortable, and definitely convenient. I rarely review any chain motels since all of each brand's motels are similar. The fact that I chose to review this one is an indicator that I thought it better than the average Motel 6.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r226348395-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>226348395</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Who Knew?</t>
+  </si>
+  <si>
+    <t>My husband, college-bound son, and the family dog made a whirlwind college campus tour in SoCal.  We stayed at 3 different Motel 6's on 3 consecutive nights.  I chose Costa Mesa to review, but they were all surprisingly nice!  I say surprising only because it's been years since I've stayed at a Motel 6, and well you know how they used to be.....Not any more!  Updated rooms, clean, no more grungy carpets!  Sort of an Ikea look - very fresh.  Motel staff were all very pleasant and accommodating; really couldn't have asked for more.  Clean, easy check-in/out, no hassle.  If you just want a nice, clean place to rest before hitting the road again, give them a try.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband, college-bound son, and the family dog made a whirlwind college campus tour in SoCal.  We stayed at 3 different Motel 6's on 3 consecutive nights.  I chose Costa Mesa to review, but they were all surprisingly nice!  I say surprising only because it's been years since I've stayed at a Motel 6, and well you know how they used to be.....Not any more!  Updated rooms, clean, no more grungy carpets!  Sort of an Ikea look - very fresh.  Motel staff were all very pleasant and accommodating; really couldn't have asked for more.  Clean, easy check-in/out, no hassle.  If you just want a nice, clean place to rest before hitting the road again, give them a try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r216693935-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>216693935</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>The room is okay at least.</t>
+  </si>
+  <si>
+    <t>I stayed in this Motel 6 for a few days when I couldn't find vacancies closer to me. I could see why it was vacant when I came searching. The room was nice enough, but there was no fridge or microwave, and when I did eventually find the microwave, I discovered it had some unwelcome guests (I guess roaches CAN survive the nuclear holocaust, apparently, if they can survive 2 minutes in the microwave).At least it was cheap (for Costa Mesa).</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r212713796-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>212713796</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>Probably left with lung cancer</t>
+  </si>
+  <si>
+    <t>As soon as you opened the door of the room it absolutely stunk of cigarette smoke, both my partner and I suffered from headaches and nausea whilst in the room, absolutely disgusting. The staff were nice, the price was reasonable for the room but the smell was unacceptable. Highly advise not taking children to this hotel</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r200440845-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>200440845</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Management Works With The Police And Management is Horrible</t>
+  </si>
+  <si>
+    <t>worst hotels i have ever stayed at they charge you $2.99 for WIFI but it goes in and out and most of the time its down and they will not refund it and if u want it fixed you have to call the internet provider to fix it there is drugs everywhere  there and a bunch of black hookers and crack heads and the rooms smell like mildew and to top it off it the manager who is this tall ugly fat girl and she sees any weird activity going on she will call the cops but this was because i was 2 hourslate on paying for the room because i was at work!!! Cops came put me in handcuffs and tore up my room  DON'T NOT STAY HERE TRUST ME!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>worst hotels i have ever stayed at they charge you $2.99 for WIFI but it goes in and out and most of the time its down and they will not refund it and if u want it fixed you have to call the internet provider to fix it there is drugs everywhere  there and a bunch of black hookers and crack heads and the rooms smell like mildew and to top it off it the manager who is this tall ugly fat girl and she sees any weird activity going on she will call the cops but this was because i was 2 hourslate on paying for the room because i was at work!!! Cops came put me in handcuffs and tore up my room  DON'T NOT STAY HERE TRUST ME!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r194595352-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>194595352</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Usual Motel 6 but this one is in a lower side of quality</t>
+  </si>
+  <si>
+    <t>This time, I would like to share my recent experience in staying at Motel 6 in Costa Mesa back in December 2013. It all started when both of me and wife were trying to find a safe and clean motel accommodation in Orange County area as we were driving back from San Diego to Los Angeles in the evening.
+It was not too hard for us to find this motel as I used GPS to find it. As far as location concerns, I believe this motel is better located than the one in Newport Beach but that's about all. When we both arrived in late evening, we immediately got our room within five (5) minutes. Our room was in the street level (which was nice) as we had quite a number of luggage with us.
+Our room was not really clean when we entered it but it was okay for us for the price we paid but personally, I would probably think twice to stay here. The Motel 6 Newport Beach is slightly better when it comes to room maintenance. However, as we only stayed for couple of hours (checked-in after 10:30 pm and out around 8:00 am), I had nothing to complain about as we both could get a decent sleep during our stay.
+Overall, I would recommend this motel to anyone who happens to be in the area and looking for inexpensive motel accommodation to stay for the...This time, I would like to share my recent experience in staying at Motel 6 in Costa Mesa back in December 2013. It all started when both of me and wife were trying to find a safe and clean motel accommodation in Orange County area as we were driving back from San Diego to Los Angeles in the evening.It was not too hard for us to find this motel as I used GPS to find it. As far as location concerns, I believe this motel is better located than the one in Newport Beach but that's about all. When we both arrived in late evening, we immediately got our room within five (5) minutes. Our room was in the street level (which was nice) as we had quite a number of luggage with us.Our room was not really clean when we entered it but it was okay for us for the price we paid but personally, I would probably think twice to stay here. The Motel 6 Newport Beach is slightly better when it comes to room maintenance. However, as we only stayed for couple of hours (checked-in after 10:30 pm and out around 8:00 am), I had nothing to complain about as we both could get a decent sleep during our stay.Overall, I would recommend this motel to anyone who happens to be in the area and looking for inexpensive motel accommodation to stay for the night but don't expect too much as there is basically nothing in there. Only a small room with so so bed to sleep on.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>This time, I would like to share my recent experience in staying at Motel 6 in Costa Mesa back in December 2013. It all started when both of me and wife were trying to find a safe and clean motel accommodation in Orange County area as we were driving back from San Diego to Los Angeles in the evening.
+It was not too hard for us to find this motel as I used GPS to find it. As far as location concerns, I believe this motel is better located than the one in Newport Beach but that's about all. When we both arrived in late evening, we immediately got our room within five (5) minutes. Our room was in the street level (which was nice) as we had quite a number of luggage with us.
+Our room was not really clean when we entered it but it was okay for us for the price we paid but personally, I would probably think twice to stay here. The Motel 6 Newport Beach is slightly better when it comes to room maintenance. However, as we only stayed for couple of hours (checked-in after 10:30 pm and out around 8:00 am), I had nothing to complain about as we both could get a decent sleep during our stay.
+Overall, I would recommend this motel to anyone who happens to be in the area and looking for inexpensive motel accommodation to stay for the...This time, I would like to share my recent experience in staying at Motel 6 in Costa Mesa back in December 2013. It all started when both of me and wife were trying to find a safe and clean motel accommodation in Orange County area as we were driving back from San Diego to Los Angeles in the evening.It was not too hard for us to find this motel as I used GPS to find it. As far as location concerns, I believe this motel is better located than the one in Newport Beach but that's about all. When we both arrived in late evening, we immediately got our room within five (5) minutes. Our room was in the street level (which was nice) as we had quite a number of luggage with us.Our room was not really clean when we entered it but it was okay for us for the price we paid but personally, I would probably think twice to stay here. The Motel 6 Newport Beach is slightly better when it comes to room maintenance. However, as we only stayed for couple of hours (checked-in after 10:30 pm and out around 8:00 am), I had nothing to complain about as we both could get a decent sleep during our stay.Overall, I would recommend this motel to anyone who happens to be in the area and looking for inexpensive motel accommodation to stay for the night but don't expect too much as there is basically nothing in there. Only a small room with so so bed to sleep on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r170698862-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>170698862</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>great place, close to the beach</t>
+  </si>
+  <si>
+    <t>Great place to stay when you visit Costa Mesa and the beaches in the area ... really close to Hingway 1, the staff is nice, the rooms are clean ..smell a bit strange .... there are enough places to eat nearby, Denny's, Inn &amp; Out Burger on walking distance .. the pool is clean ... prices are okay too .... :)</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r170250233-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>170250233</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>5 minutes here and already the worst hotel I've ever been to!!!</t>
+  </si>
+  <si>
+    <t>I got here to check in at 12:30am, after a long drive. I had to use the walk up window,  stand outside and freeze. He charged my credit card for the whole stay which was over $100 than my confirmation email stated.  He had to call someone while I froze for another 20 minutes and he came and told me he'd give me a refund of the difference.  He gave me the keys,  I went to the room,  they didn't work. Went back to the office to a sign that said he went on brake be back in 15. I called him and luckily he answered. Swiped the keys and I went back to a room with two full beds,  not what I reserved,  and my nonsmoking room smelled a whole lot like a Vegas Casino. I called him to see where the king bed was and he said that's not what the reservation was for and I said yes it was and asked to move rooms,  to which he responded they are sold out and I can talk to the manager in the morning. So we shall see how that goes.MoreShow less</t>
+  </si>
+  <si>
+    <t>I got here to check in at 12:30am, after a long drive. I had to use the walk up window,  stand outside and freeze. He charged my credit card for the whole stay which was over $100 than my confirmation email stated.  He had to call someone while I froze for another 20 minutes and he came and told me he'd give me a refund of the difference.  He gave me the keys,  I went to the room,  they didn't work. Went back to the office to a sign that said he went on brake be back in 15. I called him and luckily he answered. Swiped the keys and I went back to a room with two full beds,  not what I reserved,  and my nonsmoking room smelled a whole lot like a Vegas Casino. I called him to see where the king bed was and he said that's not what the reservation was for and I said yes it was and asked to move rooms,  to which he responded they are sold out and I can talk to the manager in the morning. So we shall see how that goes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r135655465-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>135655465</t>
+  </si>
+  <si>
+    <t>07/28/2012</t>
+  </si>
+  <si>
+    <t>Not a fan</t>
+  </si>
+  <si>
+    <t>Never stayed in a Motel 6 before and this one didn't make me a fan.  I understand that it is a budget motel but why on earth can they include refrigerators and microwaves but no coffee maker in the room?  That wouldn't have been so bad but we were "late" getting to the coffee in the "lobby" -- and the front clerk chastised me for even asking about it (none available after 10 a.m.)  I guess he was going to throw the remaining coffee out?  I can handle budget.  I can't handle rude.  We chose this hotel because of its proximity to the Orange County fairgrounds.  It was close.  But it wasn't the cleanest place and the rudeness was over the top.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Never stayed in a Motel 6 before and this one didn't make me a fan.  I understand that it is a budget motel but why on earth can they include refrigerators and microwaves but no coffee maker in the room?  That wouldn't have been so bad but we were "late" getting to the coffee in the "lobby" -- and the front clerk chastised me for even asking about it (none available after 10 a.m.)  I guess he was going to throw the remaining coffee out?  I can handle budget.  I can't handle rude.  We chose this hotel because of its proximity to the Orange County fairgrounds.  It was close.  But it wasn't the cleanest place and the rudeness was over the top.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r126748186-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>126748186</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>It was o.k.</t>
+  </si>
+  <si>
+    <t>We stayed the night here before the Surf City Marathon. It was sufficient. Hot water, clean towels and a bed. No bells and whisles but we didn't pay for those.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r100061771-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>100061771</t>
+  </si>
+  <si>
+    <t>03/13/2011</t>
+  </si>
+  <si>
+    <t>You get what you pay for...</t>
+  </si>
+  <si>
+    <t>This is a low budget hotel.  I was in town for wedding, and needed a place close by to crash for one night.  Definitely served this purpose.  Plus, the staff allowed my to check-in at 12 noon due to my schedule.  Free parking.  Wifi is $2.95 for 24 hours.I would not have stayed here with my family.  Although the rooms were clean and affordable, it's a bit sketchy.  Think strip mall next to the freeway.  It was loud, a bit smoky although i was in a non-smoking room, and the walls are paper thin. You get what you pay for.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r45958574-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>45958574</t>
+  </si>
+  <si>
+    <t>10/05/2009</t>
+  </si>
+  <si>
+    <t>Totally worth the price</t>
+  </si>
+  <si>
+    <t>Let's be honest, I wouldn't spend two weeks of vacation in this motel, but for one night as a stop on my way to San Diego, it was totally worth the price. Close to the 405, restaurants, supermarkets; relatively close to the beach. Of course it's a non-smoking motel now, of course you can still smell the 'smokers paradise', but the room was clean, the bed comfortable and the staff very friendly.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r14269252-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>14269252</t>
+  </si>
+  <si>
+    <t>03/13/2008</t>
+  </si>
+  <si>
+    <t>cheap ,comfy, and convenient</t>
+  </si>
+  <si>
+    <t>The Motel was Great!  It was close to everything.  Food, shopping, entertainment and the beach!  The price was certainly cheaper than the surronding motels.  The staff was friendly and my room was clean and comfy.  This was my first time in Costa Mesa as I traveled there on business.  I don't normally stay at motel 6 but as changes were made in my business schedule and pretty much the whole town was booked up, I was lucky enough to find a room at this motel.  However there was one thing i did'nt understand.  Why was there an ashtray put upside down with a non smoking sticker on it in a non smoking room? I mean what would be the reason for that?  I don't get it! but otherwise my stay was pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Motel was Great!  It was close to everything.  Food, shopping, entertainment and the beach!  The price was certainly cheaper than the surronding motels.  The staff was friendly and my room was clean and comfy.  This was my first time in Costa Mesa as I traveled there on business.  I don't normally stay at motel 6 but as changes were made in my business schedule and pretty much the whole town was booked up, I was lucky enough to find a room at this motel.  However there was one thing i did'nt understand.  Why was there an ashtray put upside down with a non smoking sticker on it in a non smoking room? I mean what would be the reason for that?  I don't get it! but otherwise my stay was pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r8536471-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>8536471</t>
+  </si>
+  <si>
+    <t>08/28/2007</t>
+  </si>
+  <si>
+    <t>Smoker's Paradise</t>
+  </si>
+  <si>
+    <t>This was an inexpensive clean motel (except for the air), very conveniently located near the highways and fast food chains, and with a nice big swimming pool.  The smoking issue is important to us because we were traveling with an infant.  However, our nonsmoking wing was occupied mostly by people who smoked in the doorways of their nonsmoking rooms.  They were helped by the ashtrays left in the rooms that had 'no smoking' signs stuck to them.  Leaving ashtrays in nonsmoking rooms?  How dumb is that?  It was also extremely annoying that in the morning the housekeepers kept asking us 3 or 4 times if we were out of the room yet..like they wanted to get to work early so they could leave early.  However, if you are the type of person who doesn't mind cigarettes, is OK with staying in a commercial area, and who likes to chat with the staff, I would recommend this motel.  It is quite inexpensive for the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>This was an inexpensive clean motel (except for the air), very conveniently located near the highways and fast food chains, and with a nice big swimming pool.  The smoking issue is important to us because we were traveling with an infant.  However, our nonsmoking wing was occupied mostly by people who smoked in the doorways of their nonsmoking rooms.  They were helped by the ashtrays left in the rooms that had 'no smoking' signs stuck to them.  Leaving ashtrays in nonsmoking rooms?  How dumb is that?  It was also extremely annoying that in the morning the housekeepers kept asking us 3 or 4 times if we were out of the room yet..like they wanted to get to work early so they could leave early.  However, if you are the type of person who doesn't mind cigarettes, is OK with staying in a commercial area, and who likes to chat with the staff, I would recommend this motel.  It is quite inexpensive for the area.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1287,1852 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>161</v>
+      </c>
+      <c r="X17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>192</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>199</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" t="s">
+        <v>209</v>
+      </c>
+      <c r="K25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s">
+        <v>211</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>218</v>
+      </c>
+      <c r="O26" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" t="s">
+        <v>147</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>231</v>
+      </c>
+      <c r="O28" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5896</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J31" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_530.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_530.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>yecklcarresa</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>spicy_rev</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r533915351-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
   </si>
   <si>
     <t>October 2017</t>
+  </si>
+  <si>
+    <t>nicolepilling</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r526112867-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
@@ -235,6 +244,9 @@
 Again, I knew that for the price we weren't getting a nice hotel. However, it was a gross and scary experience. Looking...I never write reviews but I had such an awful experience here I had to share it. My young daughter and I needed a room for a few nights while on vacation. I wanted a budget hotel and the pictures of this place didn't look too bad. It was cheap so I didn't have high expectations. The room initially looked clean. However, after my daughter took off her shoes and walked on the hardwood floors they were black. Pulled back the bedding to find what looked like a blood stain on the sheets.  We had pillows and blankets in the car so we used our own. This is in a pretty shady area and the majority of the hotel guests looked either homeless or like drug dealers. In fact, we were the only females I ever saw. We felt very unsafe when not locked in our room. There were police there several times, but actually these were the only times I felt comfortable enough to go out at night. The pool was tiny and full of garbage. My daughter was grossed out and disappointed.We had to walk to the lobby and pay cash for internet service. It was too slow to actually do anything and only works for one night on one device only. Don't expect wifi.Again, I knew that for the price we weren't getting a nice hotel. However, it was a gross and scary experience. Looking back, I should have left and moved to a new hotel even though I had already paid for it. Kinda ruined our vacation. If you are a man looking for a really cheap bed, go for it. Do NOT bring kids here. Worst hotel ever. I would choose a tent in the Walmart parking lot over this place next time.More</t>
   </si>
   <si>
+    <t>jacsonl286</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r466562118-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -256,6 +268,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>ebbaby1225</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r462330935-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -277,6 +292,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Kristen K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r445428094-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -295,6 +313,9 @@
     <t>This is the worst motel stay. And also the worst customer service. I stayed there and went to pay for a extra night just because it was easier then moving, even though the room was full of cockroaches and other bugs. When i went to pay for one more night the front desk said i couldn't stay because i had people in my room after 8 pm. This was not the case. I was asleep at 10. I think the people next door were having some people over. The front desk called me at 1 am. I showed them the room and that no one was in it and I still was not able to stay. I asked to see the tapes and the front desk told me that I would have to call the police in order to see them.More</t>
   </si>
   <si>
+    <t>Thomas O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r383589794-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -340,6 +361,9 @@
     <t>Not impressed with this motel. Got a room for a night due to being displaced for the night. Checked in prior to going to work to ensure I had a place to stay for the night. Upon getting back from work I decided to wash my uniform for work. The laundry facilities on-site were disappointing as one washer was broken and the washer that was working took an hour to do a load that the machine stated should take 30 minutes. The laundry room was also overpriced $2 a load for a washer or dryer. Also no change machine to get change to do laundry. The pool area was right by my room and was supposed to close at 10pm; however, there was still guests in the pool area smoking/drinking and in the spa at 1130pm. They also don't enforce their no smoking/drinking policy in the pool area as well. I was in a non smoking room. I did not feel the price I paid for my room that night was really worth it. If they were to enforce their policies a bit better they would get a better rating from me.More</t>
   </si>
   <si>
+    <t>Paulo Mateus O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r336570090-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -367,6 +391,9 @@
     <t>The clientelle is extremely dodgy. Heard the police coming 3 times in a night, to 3 different rooms. Quite scary guests in this place. Avoid if you want to be safe. At the same time, the price is well above the average motel 6. More</t>
   </si>
   <si>
+    <t>Mike_South_Jersey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r294276961-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -388,6 +415,9 @@
     <t>Was told upon check-in that we were being placed in a smoking room because we did not indicate nonsmoking preference in the comments box online. (We booked on the phone.) I asked for a discount and was denied. EVERYONE who stays there smokes, mostly - but not all - tobacco. Several guests appear to be long-term residents. The pool is in the courtyard where smokers staying in nonsmoking rooms go to smoke. The smoking room was so disgusting. The surrounding area is actually decent, but the motel has a gritty feel. There was a security guard on duty at night, but not because of the surroundings - this motel IS the bad neighborhood. Many rooms were occupied by partying young people. (Smoking, but NOT tobacco.) WIFI was available, but for a charge. Did you know motels still did this? We purchased WIFI for one night (to look for a new motel) and it didn't even work.    This is NOT fit for a family or couple stay. Might be okay for a stopover for a single traveler. Don't even take a hooker there. She deserves better.More</t>
   </si>
   <si>
+    <t>Martha F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r285810142-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -409,6 +439,9 @@
     <t>I stayed at this motel for 3 nights in June 2015.  I had already driven 7000+ miles around the country, and was visiting a doctor in a nearby town.  I found the property to be in great shape, and parking was no problem at all - I parked right in front of my room.  The staff was friendly and helpful, from the front desk to the cleaners.The area of this motel is so convenient.  There are many businesses and restaurants within walking distance, and I ate several meals at the Denny's which is a short walk across the parking lot.  The room was small, but very comfortable and certainly sufficient for just myself.  The only drawback for me was the lack of a refrigerator - in my extended travels this year I have become accustomed to them being in most motel rooms, and it saves on having to buy ice for my coolers.  There was no outside noise that bothered me, but I was sort of on the back side of the motel and away from traffic - room 142.  I didn't swim in the pool, but sat under one of the umbrellas for a while when waiting for the cleaners to be finished with my room.  The pool looked very inviting, and the pool furniture is comfortable and plentiful.  I will definitely stay at this motel6 if I am in Costa Mesa in the future.More</t>
   </si>
   <si>
+    <t>Kathy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r271437040-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -427,6 +460,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Indi237</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r241422457-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -449,6 +485,9 @@
   </si>
   <si>
     <t>I chose this motel based on the location. It's just off the freeway and a few miles to the beach. It's laid out in a horseshoe shape with part of the underground parking under the building, yet open in the back. There are stairs and an elevator. My room was located on a large empty open courtyard space that no one ever seemed to cross. The decor was in a basic retro style with bright solid colors. The room has flooring and no carpet. I avoided the cold feeling by putting towels on the floor. The A/C, frig, microwave and TV all operated easily, though the A/C was missing a control knob. The internet was slow coming up, but otherwise functioned properly. There is very basic coffee and tea available in the lobby and better coffee is just up the street. The front desk staff were pleasant. For the second day, I believe my towels were folded, but not replaced. There is a small pool and jacuzzi which a couple people did use. In all, I would return for another stay.More</t>
+  </si>
+  <si>
+    <t>revmsue</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r239566138-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
@@ -477,6 +516,9 @@
 The room we had was a "3" room, I don't recall the exact number.  Call it 324.  So we took the elevator to the third floor and walked the ENTIRE floor trying to find it, further adding to the upset of the evening, while my companion became even angrier.  He went back to the office in frustration, where he was told that our room is actually on the 4th floor.  Luckily, it was a good-sized room and the beds were comfortable.  The ice machine was on the 2nd floor, so he went down, got ice, and we had a relaxing drink....I made the reservation by calling the Motel 6 booking phone number.  I was given an address I was told was in Newport Beach, which I plugged into my GPS.  The GPS went berserk telling us to turn here, turn there, taking us to locations that were NOT the hotel.  Finally I found a taxi driver who said that we were looking in the wrong town!  He gave us proper instructions and we finally found it after driving aimlessly through the tourist area of Newport Beach.  When we did arrive at the place, the clerk was having a pleasant chat with a group of people while I waited.  It did not sound like hotel business, just a pleasant chat, while I became even more frustrated at being ignored.  Finally the people left and I was able to check in.  The room we had was a "3" room, I don't recall the exact number.  Call it 324.  So we took the elevator to the third floor and walked the ENTIRE floor trying to find it, further adding to the upset of the evening, while my companion became even angrier.  He went back to the office in frustration, where he was told that our room is actually on the 4th floor.  Luckily, it was a good-sized room and the beds were comfortable.  The ice machine was on the 2nd floor, so he went down, got ice, and we had a relaxing drink.  There were not enough towels in the room so we had to have some brought to us.The best thing about this or any other Motel 6 is that they allow pets, which explains why they did not have carpeted floors.  I can live with that.  Once the frustrations of finding the place and then the room were past, it was a decent place to stay and I would probably return....BUT, I did have to go downstairs and outside to smoke, so I combined the smoke break with a walk for the dog, which made the dog happy.  We were there several days, leaving in the morning and returning at night.  The room had been cleaned in our absence and they did leave enough towels...maybe others have had other experiences, but mine was acceptable, for the price.  I would have expected more if I had been paying more, but I am able to make allowances in exchange for the benefit of having my dog with me.More</t>
   </si>
   <si>
+    <t>PDXtrent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r238013464-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -498,6 +540,9 @@
     <t>This was one of the best priced rooms in the area that accepted pets. They let me renew my room multiple times, there was security on-site to make sure that cars parked in the area were customers of the motel. I thanked him for asking me who I was. I stayed at this property for several nights on a few different occasions, and I have to say that when you stay here, you are surrounded by great food choices. There is a Target just down the street. The beach and many other attractions are just minutes away.The rooms themselves looked all right. They have laminate floors and small bathrooms, but you can't ask for much when you only pay $50 a night in OC.More</t>
   </si>
   <si>
+    <t>Carrie K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r230192447-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -522,6 +567,9 @@
     <t>In town for our annual Sand and Sport Show weekend, our 1st choice hotel was sold out, so we ended up at this Motel 6. Having never stayed at a Motel 6, I only expected what I've seen on commercials. The only decent part of our stay was the pleasant front desk staff. The rooms had been recently updated, but not impressive.  There was no digital clock, hair dryer, travel size shampoo, conditioner or lotion. The room was very small with only a full size bed. Housekeeping staff is lacking in skills, large black hair ball and coins on floor upon entering the room. The worse part if our stay at this location was, I feel,  the motel is occupied by locals, drug addicts and possibly prostitutes. The other"guests" are up all night and if not loitering in the parking lot/corridors or pool area they are watching your every move through there rooms window. Very uncomfortable and almost scary to be there after dark. I really wish I could have a more positive review because the front desk staff was nice, but I cant. More</t>
   </si>
   <si>
+    <t>Denny G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r227164535-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -540,6 +588,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>VictoriaB928</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r226348395-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -558,6 +609,9 @@
     <t>My husband, college-bound son, and the family dog made a whirlwind college campus tour in SoCal.  We stayed at 3 different Motel 6's on 3 consecutive nights.  I chose Costa Mesa to review, but they were all surprisingly nice!  I say surprising only because it's been years since I've stayed at a Motel 6, and well you know how they used to be.....Not any more!  Updated rooms, clean, no more grungy carpets!  Sort of an Ikea look - very fresh.  Motel staff were all very pleasant and accommodating; really couldn't have asked for more.  Clean, easy check-in/out, no hassle.  If you just want a nice, clean place to rest before hitting the road again, give them a try.More</t>
   </si>
   <si>
+    <t>Gregory L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r216693935-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -576,6 +630,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>TessNolan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r212713796-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -591,6 +648,9 @@
     <t>As soon as you opened the door of the room it absolutely stunk of cigarette smoke, both my partner and I suffered from headaches and nausea whilst in the room, absolutely disgusting. The staff were nice, the price was reasonable for the room but the smell was unacceptable. Highly advise not taking children to this hotel</t>
   </si>
   <si>
+    <t>Stomperoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r200440845-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -610,6 +670,9 @@
   </si>
   <si>
     <t>worst hotels i have ever stayed at they charge you $2.99 for WIFI but it goes in and out and most of the time its down and they will not refund it and if u want it fixed you have to call the internet provider to fix it there is drugs everywhere  there and a bunch of black hookers and crack heads and the rooms smell like mildew and to top it off it the manager who is this tall ugly fat girl and she sees any weird activity going on she will call the cops but this was because i was 2 hourslate on paying for the room because i was at work!!! Cops came put me in handcuffs and tore up my room  DON'T NOT STAY HERE TRUST ME!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>Bambang S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r194595352-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
@@ -639,6 +702,9 @@
 Overall, I would recommend this motel to anyone who happens to be in the area and looking for inexpensive motel accommodation to stay for the...This time, I would like to share my recent experience in staying at Motel 6 in Costa Mesa back in December 2013. It all started when both of me and wife were trying to find a safe and clean motel accommodation in Orange County area as we were driving back from San Diego to Los Angeles in the evening.It was not too hard for us to find this motel as I used GPS to find it. As far as location concerns, I believe this motel is better located than the one in Newport Beach but that's about all. When we both arrived in late evening, we immediately got our room within five (5) minutes. Our room was in the street level (which was nice) as we had quite a number of luggage with us.Our room was not really clean when we entered it but it was okay for us for the price we paid but personally, I would probably think twice to stay here. The Motel 6 Newport Beach is slightly better when it comes to room maintenance. However, as we only stayed for couple of hours (checked-in after 10:30 pm and out around 8:00 am), I had nothing to complain about as we both could get a decent sleep during our stay.Overall, I would recommend this motel to anyone who happens to be in the area and looking for inexpensive motel accommodation to stay for the night but don't expect too much as there is basically nothing in there. Only a small room with so so bed to sleep on.More</t>
   </si>
   <si>
+    <t>DiabloDesigns v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r170698862-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -657,6 +723,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Zinkysgirl1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r170250233-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -675,6 +744,9 @@
     <t>I got here to check in at 12:30am, after a long drive. I had to use the walk up window,  stand outside and freeze. He charged my credit card for the whole stay which was over $100 than my confirmation email stated.  He had to call someone while I froze for another 20 minutes and he came and told me he'd give me a refund of the difference.  He gave me the keys,  I went to the room,  they didn't work. Went back to the office to a sign that said he went on brake be back in 15. I called him and luckily he answered. Swiped the keys and I went back to a room with two full beds,  not what I reserved,  and my nonsmoking room smelled a whole lot like a Vegas Casino. I called him to see where the king bed was and he said that's not what the reservation was for and I said yes it was and asked to move rooms,  to which he responded they are sold out and I can talk to the manager in the morning. So we shall see how that goes.More</t>
   </si>
   <si>
+    <t>SESomers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r135655465-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -696,6 +768,9 @@
     <t>Never stayed in a Motel 6 before and this one didn't make me a fan.  I understand that it is a budget motel but why on earth can they include refrigerators and microwaves but no coffee maker in the room?  That wouldn't have been so bad but we were "late" getting to the coffee in the "lobby" -- and the front clerk chastised me for even asking about it (none available after 10 a.m.)  I guess he was going to throw the remaining coffee out?  I can handle budget.  I can't handle rude.  We chose this hotel because of its proximity to the Orange County fairgrounds.  It was close.  But it wasn't the cleanest place and the rudeness was over the top.More</t>
   </si>
   <si>
+    <t>AmandaKininmonth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r126748186-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -714,6 +789,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>kcemail2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r100061771-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -732,6 +810,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>sunsetd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r45958574-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -750,6 +831,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>litig8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r14269252-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -766,6 +850,9 @@
   </si>
   <si>
     <t>The Motel was Great!  It was close to everything.  Food, shopping, entertainment and the beach!  The price was certainly cheaper than the surronding motels.  The staff was friendly and my room was clean and comfy.  This was my first time in Costa Mesa as I traveled there on business.  I don't normally stay at motel 6 but as changes were made in my business schedule and pretty much the whole town was booked up, I was lucky enough to find a room at this motel.  However there was one thing i did'nt understand.  Why was there an ashtray put upside down with a non smoking sticker on it in a non smoking room? I mean what would be the reason for that?  I don't get it! but otherwise my stay was pleasant.More</t>
+  </si>
+  <si>
+    <t>SJMomOf2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76655-r8536471-Motel_6_Costa_Mesa-Costa_Mesa_California.html</t>
@@ -1291,43 +1378,47 @@
       <c r="A2" t="n">
         <v>5896</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1341,50 +1432,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5896</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1402,50 +1497,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5896</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1461,56 +1560,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5896</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1524,50 +1627,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5896</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1585,41 +1692,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5896</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -1638,50 +1749,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5896</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1695,50 +1810,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5896</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1750,56 +1869,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5896</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1811,56 +1934,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5896</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1878,50 +2005,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5896</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1939,50 +2070,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5896</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2000,50 +2135,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5896</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2063,50 +2202,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5896</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2126,50 +2269,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5896</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2189,50 +2336,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5896</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2244,56 +2395,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="X17" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5896</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2307,50 +2462,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5896</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2364,50 +2523,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5896</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2425,41 +2588,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5896</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -2488,50 +2655,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5896</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2555,50 +2726,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5896</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -2622,50 +2797,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5896</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>222</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="O24" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2689,41 +2868,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5896</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -2752,50 +2935,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5896</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2809,50 +2996,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5896</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="O27" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -2876,50 +3067,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5896</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>251</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -2943,50 +3138,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5896</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="O29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3010,41 +3209,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5896</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -3063,50 +3266,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5896</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>272</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="J31" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="K31" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -3130,7 +3337,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
